--- a/HW6/results.xlsx
+++ b/HW6/results.xlsx
@@ -31,6 +31,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">피보나치 수열을 재귀적으로 계산하면 </t>
     </r>
@@ -39,6 +40,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n</t>
     </r>
@@ -47,6 +49,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에 따라 수행 시간이 지수적으로 증가한다</t>
     </r>
@@ -55,8 +58,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t xml:space="preserve">. =&gt; O(2^n)</t>
     </r>
   </si>
   <si>
@@ -65,6 +69,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">피보나치 수열을 재귀적으로 계산할 때</t>
     </r>
@@ -73,6 +78,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, memoization</t>
     </r>
@@ -81,6 +87,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">을 사용하면 시간복잡도를 획기적으로 감소시킬 수 있다</t>
     </r>
@@ -89,8 +96,9 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t xml:space="preserve">. =&gt;O(n)</t>
     </r>
   </si>
   <si>
@@ -107,11 +115,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -131,6 +140,12 @@
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -257,7 +272,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -301,6 +316,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -674,6 +691,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1020,11 +1039,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="21906499"/>
-        <c:axId val="11367906"/>
+        <c:axId val="20864612"/>
+        <c:axId val="5731592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21906499"/>
+        <c:axId val="20864612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,14 +1071,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11367906"/>
+        <c:crossAx val="5731592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11367906"/>
+        <c:axId val="5731592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1093,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1096,7 +1115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21906499"/>
+        <c:crossAx val="20864612"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1151,13 +1170,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>739800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>810000</xdr:colOff>
+      <xdr:colOff>809640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1165,8 +1184,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3178080" y="179280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3178080" y="179640"/>
+        <a:ext cx="5759280" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1186,8 +1205,8 @@
   </sheetPr>
   <dimension ref="E24:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,12 +1219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1229,7 +1248,7 @@
   </sheetPr>
   <dimension ref="A1:C1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B254" activeCellId="0" sqref="B254"/>
     </sheetView>
   </sheetViews>
@@ -9471,7 +9490,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/HW6/results.xlsx
+++ b/HW6/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\19-1-DS\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A574A116-BB49-4DE3-9291-5ED30F81A670}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1712307-1038-4FAD-B547-DEB452F07727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17520" yWindow="5265" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1907,10 +1907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B24:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1936,7 +1939,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
